--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Spring.012720.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Spring.012720.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2285,12 +2285,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2327,12 +2327,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3335,12 +3335,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3419,12 +3419,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3629,12 +3629,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3713,12 +3713,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3965,12 +3965,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4007,12 +4007,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4133,12 +4133,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4175,12 +4175,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4217,12 +4217,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4259,12 +4259,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4763,12 +4763,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5611,12 +5611,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5737,12 +5737,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5993,12 +5993,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6963,12 +6963,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7219,12 +7219,12 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7303,12 +7303,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7513,12 +7513,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7555,12 +7555,12 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7639,12 +7639,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7933,12 +7933,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8311,12 +8311,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8525,12 +8525,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8861,12 +8861,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9113,12 +9113,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9155,12 +9155,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9533,12 +9533,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9953,12 +9953,12 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10079,12 +10079,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10541,12 +10541,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10709,12 +10709,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11003,12 +11003,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11343,12 +11343,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11385,12 +11385,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11511,12 +11511,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11637,12 +11637,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11679,12 +11679,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11763,12 +11763,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11805,12 +11805,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12229,12 +12229,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12397,12 +12397,12 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12439,12 +12439,12 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12523,12 +12523,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12943,12 +12943,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13027,12 +13027,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -13573,12 +13573,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13703,12 +13703,12 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13745,12 +13745,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14123,12 +14123,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14635,12 +14635,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15055,12 +15055,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15181,12 +15181,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15433,12 +15433,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15731,12 +15731,12 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15773,12 +15773,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15815,12 +15815,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16529,12 +16529,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17037,12 +17037,12 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17289,12 +17289,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17415,12 +17415,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17965,12 +17965,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18179,12 +18179,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18263,12 +18263,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18557,12 +18557,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18599,12 +18599,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18725,12 +18725,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18767,12 +18767,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18851,12 +18851,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18935,12 +18935,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
